--- a/validacion_diaria_calls.xlsx
+++ b/validacion_diaria_calls.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4e7f01a4cf0ecc30/Escritorio/TFM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_DD00C129F869D40C2CFF31D2F8F2D3C224DB5322" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73996B7B-B034-496A-B94A-9C9035679184}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4325D08-BE7D-4922-9272-AA30CB08662C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -409,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A990BBAD-ACB6-4A37-A369-EB2F4FAF39B8}">
   <dimension ref="A1:J489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A466" workbookViewId="0">
-      <selection activeCell="L479" sqref="L479"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D394" sqref="D394:D489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13002,7 +13002,7 @@
         <v>7</v>
       </c>
       <c r="D394">
-        <v>29</v>
+        <v>110.53</v>
       </c>
       <c r="E394">
         <v>13</v>
@@ -13034,7 +13034,7 @@
         <v>1</v>
       </c>
       <c r="D395">
-        <v>621.32000000000005</v>
+        <v>721.79</v>
       </c>
       <c r="E395">
         <v>645.81169999999997</v>
@@ -13066,7 +13066,7 @@
         <v>2</v>
       </c>
       <c r="D396">
-        <v>604.79</v>
+        <v>716.18</v>
       </c>
       <c r="E396">
         <v>589.55460000000005</v>
@@ -13098,7 +13098,7 @@
         <v>3</v>
       </c>
       <c r="D397">
-        <v>569.15</v>
+        <v>667.05</v>
       </c>
       <c r="E397">
         <v>269.7122</v>
@@ -13130,7 +13130,7 @@
         <v>4</v>
       </c>
       <c r="D398">
-        <v>503.14</v>
+        <v>634.12</v>
       </c>
       <c r="E398">
         <v>162.7457</v>
@@ -13162,7 +13162,7 @@
         <v>5</v>
       </c>
       <c r="D399">
-        <v>103.98</v>
+        <v>126.58</v>
       </c>
       <c r="E399">
         <v>31.710899999999999</v>
@@ -13194,7 +13194,7 @@
         <v>6</v>
       </c>
       <c r="D400">
-        <v>30.3</v>
+        <v>40.99</v>
       </c>
       <c r="E400">
         <v>8</v>
@@ -13226,7 +13226,7 @@
         <v>0</v>
       </c>
       <c r="D401">
-        <v>712</v>
+        <v>795.05</v>
       </c>
       <c r="E401">
         <v>640.75459999999998</v>
@@ -13258,7 +13258,7 @@
         <v>1</v>
       </c>
       <c r="D402">
-        <v>619.79</v>
+        <v>715.63</v>
       </c>
       <c r="E402">
         <v>633.75469999999996</v>
@@ -13290,7 +13290,7 @@
         <v>2</v>
       </c>
       <c r="D403">
-        <v>669.1</v>
+        <v>711.3</v>
       </c>
       <c r="E403">
         <v>578.75469999999996</v>
@@ -13322,7 +13322,7 @@
         <v>3</v>
       </c>
       <c r="D404">
-        <v>641.17999999999995</v>
+        <v>672.28</v>
       </c>
       <c r="E404">
         <v>227.75470000000001</v>
@@ -13354,7 +13354,7 @@
         <v>4</v>
       </c>
       <c r="D405">
-        <v>540.29999999999995</v>
+        <v>625.4</v>
       </c>
       <c r="E405">
         <v>157.75470000000001</v>
@@ -13386,7 +13386,7 @@
         <v>5</v>
       </c>
       <c r="D406">
-        <v>102.86</v>
+        <v>126.91</v>
       </c>
       <c r="E406">
         <v>47.712800000000001</v>
@@ -13418,7 +13418,7 @@
         <v>6</v>
       </c>
       <c r="D407">
-        <v>32.82</v>
+        <v>41.07</v>
       </c>
       <c r="E407">
         <v>8</v>
@@ -13450,7 +13450,7 @@
         <v>7</v>
       </c>
       <c r="D408">
-        <v>86.19</v>
+        <v>114.56</v>
       </c>
       <c r="E408">
         <v>13</v>
@@ -13482,7 +13482,7 @@
         <v>1</v>
       </c>
       <c r="D409">
-        <v>690.84</v>
+        <v>705.21</v>
       </c>
       <c r="E409">
         <v>635.76260000000002</v>
@@ -13514,7 +13514,7 @@
         <v>2</v>
       </c>
       <c r="D410">
-        <v>679.53</v>
+        <v>696.63</v>
       </c>
       <c r="E410">
         <v>579.50549999999998</v>
@@ -13546,7 +13546,7 @@
         <v>3</v>
       </c>
       <c r="D411">
-        <v>640.21</v>
+        <v>663.53</v>
       </c>
       <c r="E411">
         <v>259.66309999999999</v>
@@ -13578,7 +13578,7 @@
         <v>4</v>
       </c>
       <c r="D412">
-        <v>575.47</v>
+        <v>639.64</v>
       </c>
       <c r="E412">
         <v>152.69659999999999</v>
@@ -13610,7 +13610,7 @@
         <v>5</v>
       </c>
       <c r="D413">
-        <v>123.28</v>
+        <v>126.89</v>
       </c>
       <c r="E413">
         <v>21.661799999999999</v>
@@ -13642,7 +13642,7 @@
         <v>6</v>
       </c>
       <c r="D414">
-        <v>19.079999999999998</v>
+        <v>72.86</v>
       </c>
       <c r="E414">
         <v>8</v>
@@ -13674,7 +13674,7 @@
         <v>0</v>
       </c>
       <c r="D415">
-        <v>795.7</v>
+        <v>817.05</v>
       </c>
       <c r="E415">
         <v>630.70550000000003</v>
@@ -13706,7 +13706,7 @@
         <v>1</v>
       </c>
       <c r="D416">
-        <v>700.27</v>
+        <v>705.08</v>
       </c>
       <c r="E416">
         <v>623.7056</v>
@@ -13738,7 +13738,7 @@
         <v>2</v>
       </c>
       <c r="D417">
-        <v>667.76</v>
+        <v>744.02</v>
       </c>
       <c r="E417">
         <v>568.7056</v>
@@ -13770,7 +13770,7 @@
         <v>3</v>
       </c>
       <c r="D418">
-        <v>624.49</v>
+        <v>651.67999999999995</v>
       </c>
       <c r="E418">
         <v>217.7056</v>
@@ -13802,7 +13802,7 @@
         <v>4</v>
       </c>
       <c r="D419">
-        <v>605.74</v>
+        <v>604.9</v>
       </c>
       <c r="E419">
         <v>147.7056</v>
@@ -13834,7 +13834,7 @@
         <v>5</v>
       </c>
       <c r="D420">
-        <v>124.89</v>
+        <v>133.04</v>
       </c>
       <c r="E420">
         <v>37.663699999999999</v>
@@ -13866,7 +13866,7 @@
         <v>6</v>
       </c>
       <c r="D421">
-        <v>17</v>
+        <v>38.25</v>
       </c>
       <c r="E421">
         <v>8</v>
@@ -13898,7 +13898,7 @@
         <v>0</v>
       </c>
       <c r="D422">
-        <v>736.88</v>
+        <v>832.59</v>
       </c>
       <c r="E422">
         <v>667.21180000000004</v>
@@ -13930,7 +13930,7 @@
         <v>1</v>
       </c>
       <c r="D423">
-        <v>636.91999999999996</v>
+        <v>727.77</v>
       </c>
       <c r="E423">
         <v>625.71360000000004</v>
@@ -13962,7 +13962,7 @@
         <v>2</v>
       </c>
       <c r="D424">
-        <v>651.29</v>
+        <v>736.04</v>
       </c>
       <c r="E424">
         <v>569.45640000000003</v>
@@ -13994,7 +13994,7 @@
         <v>3</v>
       </c>
       <c r="D425">
-        <v>641.16</v>
+        <v>678.65</v>
       </c>
       <c r="E425">
         <v>266.8963</v>
@@ -14026,7 +14026,7 @@
         <v>4</v>
       </c>
       <c r="D426">
-        <v>626.85</v>
+        <v>648.67999999999995</v>
       </c>
       <c r="E426">
         <v>159.9298</v>
@@ -14058,7 +14058,7 @@
         <v>5</v>
       </c>
       <c r="D427">
-        <v>108.91</v>
+        <v>125.79</v>
       </c>
       <c r="E427">
         <v>28.895</v>
@@ -14090,7 +14090,7 @@
         <v>6</v>
       </c>
       <c r="D428">
-        <v>17</v>
+        <v>42.5</v>
       </c>
       <c r="E428">
         <v>8</v>
@@ -14122,7 +14122,7 @@
         <v>0</v>
       </c>
       <c r="D429">
-        <v>712</v>
+        <v>801.36</v>
       </c>
       <c r="E429">
         <v>637.93870000000004</v>
@@ -14154,7 +14154,7 @@
         <v>1</v>
       </c>
       <c r="D430">
-        <v>640.87</v>
+        <v>738.12</v>
       </c>
       <c r="E430">
         <v>630.93880000000001</v>
@@ -14186,7 +14186,7 @@
         <v>2</v>
       </c>
       <c r="D431">
-        <v>673.69</v>
+        <v>733.96</v>
       </c>
       <c r="E431">
         <v>575.93880000000001</v>
@@ -14218,7 +14218,7 @@
         <v>3</v>
       </c>
       <c r="D432">
-        <v>646.35</v>
+        <v>676.95</v>
       </c>
       <c r="E432">
         <v>224.93879999999999</v>
@@ -14250,7 +14250,7 @@
         <v>4</v>
       </c>
       <c r="D433">
-        <v>592.79999999999995</v>
+        <v>734.35</v>
       </c>
       <c r="E433">
         <v>154.93879999999999</v>
@@ -14282,7 +14282,7 @@
         <v>5</v>
       </c>
       <c r="D434">
-        <v>103.65</v>
+        <v>125.84</v>
       </c>
       <c r="E434">
         <v>44.896900000000002</v>
@@ -14314,7 +14314,7 @@
         <v>6</v>
       </c>
       <c r="D435">
-        <v>18.920000000000002</v>
+        <v>41.45</v>
       </c>
       <c r="E435">
         <v>8</v>
@@ -14346,7 +14346,7 @@
         <v>0</v>
       </c>
       <c r="D436">
-        <v>729.1</v>
+        <v>1074.45</v>
       </c>
       <c r="E436">
         <v>674.44500000000005</v>
@@ -14378,7 +14378,7 @@
         <v>1</v>
       </c>
       <c r="D437">
-        <v>672.08</v>
+        <v>784.76</v>
       </c>
       <c r="E437">
         <v>632.94669999999996</v>
@@ -14410,7 +14410,7 @@
         <v>2</v>
       </c>
       <c r="D438">
-        <v>688.05</v>
+        <v>729.95</v>
       </c>
       <c r="E438">
         <v>576.68960000000004</v>
@@ -14442,7 +14442,7 @@
         <v>3</v>
       </c>
       <c r="D439">
-        <v>658.93</v>
+        <v>691.33</v>
       </c>
       <c r="E439">
         <v>256.84719999999999</v>
@@ -14474,7 +14474,7 @@
         <v>4</v>
       </c>
       <c r="D440">
-        <v>599.17999999999995</v>
+        <v>637.4</v>
       </c>
       <c r="E440">
         <v>149.88069999999999</v>
@@ -14506,7 +14506,7 @@
         <v>5</v>
       </c>
       <c r="D441">
-        <v>110.6</v>
+        <v>119.65</v>
       </c>
       <c r="E441">
         <v>18.8459</v>
@@ -14538,7 +14538,7 @@
         <v>6</v>
       </c>
       <c r="D442">
-        <v>18.12</v>
+        <v>43.44</v>
       </c>
       <c r="E442">
         <v>8</v>
@@ -14570,7 +14570,7 @@
         <v>0</v>
       </c>
       <c r="D443">
-        <v>778.6</v>
+        <v>837.28</v>
       </c>
       <c r="E443">
         <v>627.88959999999997</v>
@@ -14602,7 +14602,7 @@
         <v>1</v>
       </c>
       <c r="D444">
-        <v>703.18</v>
+        <v>740.52</v>
       </c>
       <c r="E444">
         <v>620.88969999999995</v>
@@ -14634,7 +14634,7 @@
         <v>2</v>
       </c>
       <c r="D445">
-        <v>680.49</v>
+        <v>730.82</v>
       </c>
       <c r="E445">
         <v>565.88969999999995</v>
@@ -14666,7 +14666,7 @@
         <v>3</v>
       </c>
       <c r="D446">
-        <v>626.24</v>
+        <v>674.73</v>
       </c>
       <c r="E446">
         <v>214.8897</v>
@@ -14698,7 +14698,7 @@
         <v>4</v>
       </c>
       <c r="D447">
-        <v>616.79999999999995</v>
+        <v>607.74</v>
       </c>
       <c r="E447">
         <v>144.8897</v>
@@ -14730,7 +14730,7 @@
         <v>5</v>
       </c>
       <c r="D448">
-        <v>115.43</v>
+        <v>122.41</v>
       </c>
       <c r="E448">
         <v>34.847799999999999</v>
@@ -14762,7 +14762,7 @@
         <v>6</v>
       </c>
       <c r="D449">
-        <v>17</v>
+        <v>43.48</v>
       </c>
       <c r="E449">
         <v>8</v>
@@ -14794,7 +14794,7 @@
         <v>0</v>
       </c>
       <c r="D450">
-        <v>770.92</v>
+        <v>799.27</v>
       </c>
       <c r="E450">
         <v>664.39589999999998</v>
@@ -14826,7 +14826,7 @@
         <v>1</v>
       </c>
       <c r="D451">
-        <v>668.09</v>
+        <v>741.39</v>
       </c>
       <c r="E451">
         <v>622.89760000000001</v>
@@ -14858,7 +14858,7 @@
         <v>2</v>
       </c>
       <c r="D452">
-        <v>670.82</v>
+        <v>732.08</v>
       </c>
       <c r="E452">
         <v>566.64049999999997</v>
@@ -14890,7 +14890,7 @@
         <v>3</v>
       </c>
       <c r="D453">
-        <v>611.15</v>
+        <v>641.66</v>
       </c>
       <c r="E453">
         <v>246.79810000000001</v>
@@ -14922,7 +14922,7 @@
         <v>4</v>
       </c>
       <c r="D454">
-        <v>630.85</v>
+        <v>669.06</v>
       </c>
       <c r="E454">
         <v>155.67830000000001</v>
@@ -14954,7 +14954,7 @@
         <v>5</v>
       </c>
       <c r="D455">
-        <v>117.7</v>
+        <v>123.2</v>
       </c>
       <c r="E455">
         <v>24.6435</v>
@@ -14986,7 +14986,7 @@
         <v>6</v>
       </c>
       <c r="D456">
-        <v>17</v>
+        <v>40.82</v>
       </c>
       <c r="E456">
         <v>8</v>
@@ -15018,7 +15018,7 @@
         <v>0</v>
       </c>
       <c r="D457">
-        <v>712</v>
+        <v>843.58</v>
       </c>
       <c r="E457">
         <v>633.68719999999996</v>
@@ -15050,7 +15050,7 @@
         <v>1</v>
       </c>
       <c r="D458">
-        <v>651.16</v>
+        <v>746.85</v>
       </c>
       <c r="E458">
         <v>626.68730000000005</v>
@@ -15082,7 +15082,7 @@
         <v>2</v>
       </c>
       <c r="D459">
-        <v>681.99</v>
+        <v>699.4</v>
       </c>
       <c r="E459">
         <v>571.68730000000005</v>
@@ -15114,7 +15114,7 @@
         <v>3</v>
       </c>
       <c r="D460">
-        <v>666.65</v>
+        <v>726.7</v>
       </c>
       <c r="E460">
         <v>220.68729999999999</v>
@@ -15146,7 +15146,7 @@
         <v>4</v>
       </c>
       <c r="D461">
-        <v>612.6</v>
+        <v>623.28</v>
       </c>
       <c r="E461">
         <v>150.68729999999999</v>
@@ -15178,7 +15178,7 @@
         <v>5</v>
       </c>
       <c r="D462">
-        <v>114.36</v>
+        <v>124.85</v>
       </c>
       <c r="E462">
         <v>40.645400000000002</v>
@@ -15210,7 +15210,7 @@
         <v>6</v>
       </c>
       <c r="D463">
-        <v>18.86</v>
+        <v>42.22</v>
       </c>
       <c r="E463">
         <v>8</v>
@@ -15242,7 +15242,7 @@
         <v>0</v>
       </c>
       <c r="D464">
-        <v>723.7</v>
+        <v>1004.77</v>
       </c>
       <c r="E464">
         <v>670.19349999999997</v>
@@ -15274,7 +15274,7 @@
         <v>1</v>
       </c>
       <c r="D465">
-        <v>668.32</v>
+        <v>739.78</v>
       </c>
       <c r="E465">
         <v>628.6952</v>
@@ -15306,7 +15306,7 @@
         <v>2</v>
       </c>
       <c r="D466">
-        <v>693.56</v>
+        <v>727.51</v>
       </c>
       <c r="E466">
         <v>572.43809999999996</v>
@@ -15338,7 +15338,7 @@
         <v>3</v>
       </c>
       <c r="D467">
-        <v>665.03</v>
+        <v>726.1</v>
       </c>
       <c r="E467">
         <v>252.59569999999999</v>
@@ -15370,7 +15370,7 @@
         <v>4</v>
       </c>
       <c r="D468">
-        <v>583.23</v>
+        <v>623.82000000000005</v>
       </c>
       <c r="E468">
         <v>145.6292</v>
@@ -15402,7 +15402,7 @@
         <v>5</v>
       </c>
       <c r="D469">
-        <v>112.75</v>
+        <v>121.45</v>
       </c>
       <c r="E469">
         <v>14.5944</v>
@@ -15434,7 +15434,7 @@
         <v>6</v>
       </c>
       <c r="D470">
-        <v>18.600000000000001</v>
+        <v>41.89</v>
       </c>
       <c r="E470">
         <v>8</v>
@@ -15466,7 +15466,7 @@
         <v>0</v>
       </c>
       <c r="D471">
-        <v>769.6</v>
+        <v>1004.06</v>
       </c>
       <c r="E471">
         <v>623.63810000000001</v>
@@ -15498,7 +15498,7 @@
         <v>1</v>
       </c>
       <c r="D472">
-        <v>706.21</v>
+        <v>741.36</v>
       </c>
       <c r="E472">
         <v>616.63819999999998</v>
@@ -15530,7 +15530,7 @@
         <v>2</v>
       </c>
       <c r="D473">
-        <v>685.37</v>
+        <v>750.2</v>
       </c>
       <c r="E473">
         <v>561.63819999999998</v>
@@ -15562,7 +15562,7 @@
         <v>3</v>
       </c>
       <c r="D474">
-        <v>672.79</v>
+        <v>719.51</v>
       </c>
       <c r="E474">
         <v>210.63820000000001</v>
@@ -15594,7 +15594,7 @@
         <v>4</v>
       </c>
       <c r="D475">
-        <v>586.59</v>
+        <v>639.16</v>
       </c>
       <c r="E475">
         <v>140.63820000000001</v>
@@ -15626,7 +15626,7 @@
         <v>5</v>
       </c>
       <c r="D476">
-        <v>111.88</v>
+        <v>121.41</v>
       </c>
       <c r="E476">
         <v>30.596299999999999</v>
@@ -15658,7 +15658,7 @@
         <v>6</v>
       </c>
       <c r="D477">
-        <v>17</v>
+        <v>43.55</v>
       </c>
       <c r="E477">
         <v>8</v>
@@ -15690,7 +15690,7 @@
         <v>0</v>
       </c>
       <c r="D478">
-        <v>782.76</v>
+        <v>1012.34</v>
       </c>
       <c r="E478">
         <v>660.14440000000002</v>
@@ -15722,7 +15722,7 @@
         <v>1</v>
       </c>
       <c r="D479">
-        <v>678.11</v>
+        <v>747.12</v>
       </c>
       <c r="E479">
         <v>618.64620000000002</v>
@@ -15754,7 +15754,7 @@
         <v>2</v>
       </c>
       <c r="D480">
-        <v>678.1</v>
+        <v>752.06</v>
       </c>
       <c r="E480">
         <v>562.38909999999998</v>
@@ -15786,7 +15786,7 @@
         <v>3</v>
       </c>
       <c r="D481">
-        <v>666.42</v>
+        <v>728.58</v>
       </c>
       <c r="E481">
         <v>242.54669999999999</v>
@@ -15818,7 +15818,7 @@
         <v>4</v>
       </c>
       <c r="D482">
-        <v>590.88</v>
+        <v>726.81</v>
       </c>
       <c r="E482">
         <v>135.58009999999999</v>
@@ -15850,7 +15850,7 @@
         <v>5</v>
       </c>
       <c r="D483">
-        <v>110.01</v>
+        <v>123.92</v>
       </c>
       <c r="E483">
         <v>4.5453000000000001</v>
@@ -15882,7 +15882,7 @@
         <v>6</v>
       </c>
       <c r="D484">
-        <v>17</v>
+        <v>35.72</v>
       </c>
       <c r="E484">
         <v>8</v>
@@ -15914,7 +15914,7 @@
         <v>0</v>
       </c>
       <c r="D485">
-        <v>721.3</v>
+        <v>835.69</v>
       </c>
       <c r="E485">
         <v>630.87130000000002</v>
@@ -15946,7 +15946,7 @@
         <v>1</v>
       </c>
       <c r="D486">
-        <v>662.05</v>
+        <v>785.42</v>
       </c>
       <c r="E486">
         <v>623.87139999999999</v>
@@ -15978,7 +15978,7 @@
         <v>2</v>
       </c>
       <c r="D487">
-        <v>674.53</v>
+        <v>752.35</v>
       </c>
       <c r="E487">
         <v>568.87139999999999</v>
@@ -16010,7 +16010,7 @@
         <v>3</v>
       </c>
       <c r="D488">
-        <v>648.01</v>
+        <v>753.58</v>
       </c>
       <c r="E488">
         <v>217.87139999999999</v>
@@ -16042,7 +16042,7 @@
         <v>4</v>
       </c>
       <c r="D489">
-        <v>576.36</v>
+        <v>648.86</v>
       </c>
       <c r="E489">
         <v>147.87139999999999</v>
